--- a/thesis/test-results-bkp.xlsx
+++ b/thesis/test-results-bkp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="16">
   <si>
     <t>Bez optimizacijskih mehanizama</t>
   </si>
@@ -53,6 +53,21 @@
   </si>
   <si>
     <t>Dinamično testiranje</t>
+  </si>
+  <si>
+    <t>Propusnost</t>
+  </si>
+  <si>
+    <t>Bez optimizacije</t>
+  </si>
+  <si>
+    <t>Nakon optimizacije</t>
+  </si>
+  <si>
+    <t>Vrijeme odgovora</t>
+  </si>
+  <si>
+    <t>Dostupnost</t>
   </si>
 </sst>
 </file>
@@ -204,8 +219,70 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -311,7 +388,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="145">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -353,6 +430,37 @@
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -394,6 +502,37 @@
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -639,11 +778,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2138617160"/>
-        <c:axId val="2138656888"/>
+        <c:axId val="2135854328"/>
+        <c:axId val="2135861192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2138617160"/>
+        <c:axId val="2135854328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -672,7 +811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138656888"/>
+        <c:crossAx val="2135861192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -680,7 +819,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138656888"/>
+        <c:axId val="2135861192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +875,2613 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138617160"/>
+        <c:crossAx val="2135854328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Propusnost web sustava (statično</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> testiranje)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static tests'!$C$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bez optimizacije</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Static tests'!$D$84:$L$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static tests'!$D$85:$L$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static tests'!$C$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S indeksima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Static tests'!$D$84:$L$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static tests'!$D$86:$L$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static tests'!$C$87</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nakon optimizacije</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Static tests'!$D$84:$L$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static tests'!$D$87:$L$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>35.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2139775320"/>
+        <c:axId val="-2141345624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2139775320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Broj paralelnih korisnika</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2141345624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2141345624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Propusnost (broj zahtjeva u sekundi)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2139775320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Propusnost web sustava (dinamično </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t>testiranje)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static tests'!$C$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bez optimizacije</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Static tests'!$D$91:$L$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static tests'!$D$92:$L$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static tests'!$C$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S indeksima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Static tests'!$D$91:$L$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static tests'!$D$93:$L$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static tests'!$C$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nakon optimizacije</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Static tests'!$D$91:$L$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static tests'!$D$94:$L$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2137334040"/>
+        <c:axId val="-2145188328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2137334040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Broj paralelnih korisnika</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2145188328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2145188328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Propusnost (broj zahtjeva u sekundi)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2137334040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Vrijeme odgovora web sustava (statično</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> testiranje)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static tests'!$O$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bez optimizacije</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Static tests'!$P$84:$X$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static tests'!$P$85:$X$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>20.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static tests'!$O$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S indeksima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Static tests'!$P$84:$X$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static tests'!$P$86:$X$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static tests'!$O$87</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nakon optimizacije</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Static tests'!$P$84:$X$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static tests'!$P$87:$X$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2139363912"/>
+        <c:axId val="2137105352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2139363912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Broj paralelnih korisnika</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2137105352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2137105352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Vrijeme odgovora</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2139363912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Vrijeme odgovora web sustava (dinamično </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t>testiranje)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static tests'!$O$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bez optimizacije</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Static tests'!$P$91:$X$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static tests'!$P$92:$X$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static tests'!$O$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S indeksima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Static tests'!$P$91:$X$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static tests'!$P$93:$X$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static tests'!$O$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nakon optimizacije</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Static tests'!$P$91:$X$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static tests'!$P$94:$X$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2136687768"/>
+        <c:axId val="-2141604392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2136687768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Broj paralelnih korisnika</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2141604392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2141604392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Vrijeme odgovora</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2136687768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Dostupnost</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>web sustava (statično</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> testiranje)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static tests'!$Z$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bez optimizacije</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Static tests'!$AA$84:$AI$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static tests'!$AA$85:$AI$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static tests'!$Z$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S indeksima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Static tests'!$AA$84:$AI$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static tests'!$AA$86:$AI$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static tests'!$Z$87</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nakon optimizacije</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Static tests'!$AA$84:$AI$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static tests'!$AA$87:$AI$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2133006280"/>
+        <c:axId val="-2133015272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2133006280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Broj paralelnih korisnika</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2133015272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2133015272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dostupnost (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2133006280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Dostupnost</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>web sustava (dinamično </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t>testiranje)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static tests'!$Z$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bez optimizacije</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Static tests'!$AA$91:$AI$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static tests'!$AA$92:$AI$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>88.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static tests'!$Z$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S indeksima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Static tests'!$AA$91:$AI$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static tests'!$AA$93:$AI$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static tests'!$Z$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nakon optimizacije</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Static tests'!$AA$91:$AI$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static tests'!$AA$94:$AI$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2146695592"/>
+        <c:axId val="-2146869704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2146695592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Broj paralelnih korisnika</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2146869704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2146869704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dostupnost (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2146695592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1006,11 +3751,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2138624424"/>
-        <c:axId val="2063877240"/>
+        <c:axId val="2135060616"/>
+        <c:axId val="2135055112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2138624424"/>
+        <c:axId val="2135060616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1039,7 +3784,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2063877240"/>
+        <c:crossAx val="2135055112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1047,7 +3792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2063877240"/>
+        <c:axId val="2135055112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1077,7 +3822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138624424"/>
+        <c:crossAx val="2135060616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1347,11 +4092,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2142630216"/>
-        <c:axId val="2142824696"/>
+        <c:axId val="2136773608"/>
+        <c:axId val="2136779064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142630216"/>
+        <c:axId val="2136773608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1380,7 +4125,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142824696"/>
+        <c:crossAx val="2136779064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1388,7 +4133,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142824696"/>
+        <c:axId val="2136779064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,7 +4163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142630216"/>
+        <c:crossAx val="2136773608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1684,11 +4429,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2142500696"/>
-        <c:axId val="2142506184"/>
+        <c:axId val="2136815944"/>
+        <c:axId val="2136821432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142500696"/>
+        <c:axId val="2136815944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1717,7 +4462,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142506184"/>
+        <c:crossAx val="2136821432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1725,7 +4470,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142506184"/>
+        <c:axId val="2136821432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1760,7 +4505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142500696"/>
+        <c:crossAx val="2136815944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2028,11 +4773,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2143103352"/>
-        <c:axId val="2142480488"/>
+        <c:axId val="2136856376"/>
+        <c:axId val="2136861864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143103352"/>
+        <c:axId val="2136856376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,7 +4806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142480488"/>
+        <c:crossAx val="2136861864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2069,7 +4814,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142480488"/>
+        <c:axId val="2136861864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,7 +4849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143103352"/>
+        <c:crossAx val="2136856376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2374,11 +5119,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133786824"/>
-        <c:axId val="2133682776"/>
+        <c:axId val="2136895496"/>
+        <c:axId val="2136900984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2133786824"/>
+        <c:axId val="2136895496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2407,7 +5152,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133682776"/>
+        <c:crossAx val="2136900984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2415,7 +5160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133682776"/>
+        <c:axId val="2136900984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2445,7 +5190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133786824"/>
+        <c:crossAx val="2136895496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2528,7 +5273,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Static tests'!$D$63</c:f>
+              <c:f>'Static tests'!$D$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2542,7 +5287,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Static tests'!$E$61:$M$61</c:f>
+              <c:f>'Static tests'!$E$55:$M$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2578,7 +5323,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Static tests'!$E$63:$M$63</c:f>
+              <c:f>'Static tests'!$E$57:$M$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2604,10 +5349,10 @@
                   <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96.22</c:v>
+                  <c:v>46.97</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91.3</c:v>
+                  <c:v>34.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2619,7 +5364,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Static tests'!$D$62</c:f>
+              <c:f>'Static tests'!$D$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2633,7 +5378,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Static tests'!$E$61:$M$61</c:f>
+              <c:f>'Static tests'!$E$55:$M$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2669,7 +5414,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Static tests'!$E$62:$M$62</c:f>
+              <c:f>'Static tests'!$E$56:$M$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2695,10 +5440,10 @@
                   <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.14</c:v>
+                  <c:v>67.45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93.38</c:v>
+                  <c:v>49.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2715,11 +5460,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133213864"/>
-        <c:axId val="2133658968"/>
+        <c:axId val="2136927336"/>
+        <c:axId val="2136932824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2133213864"/>
+        <c:axId val="2136927336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2748,7 +5493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133658968"/>
+        <c:crossAx val="2136932824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2756,7 +5501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133658968"/>
+        <c:axId val="2136932824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2786,7 +5531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133213864"/>
+        <c:crossAx val="2136927336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3058,11 +5803,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2142718904"/>
-        <c:axId val="2143092952"/>
+        <c:axId val="2136972904"/>
+        <c:axId val="2136978392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142718904"/>
+        <c:axId val="2136972904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3091,7 +5836,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143092952"/>
+        <c:crossAx val="2136978392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3099,7 +5844,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143092952"/>
+        <c:axId val="2136978392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3129,7 +5874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142718904"/>
+        <c:crossAx val="2136972904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3401,11 +6146,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2065231128"/>
-        <c:axId val="2142296536"/>
+        <c:axId val="2136087528"/>
+        <c:axId val="2136081976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2065231128"/>
+        <c:axId val="2136087528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3434,7 +6179,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142296536"/>
+        <c:crossAx val="2136081976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3442,7 +6187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142296536"/>
+        <c:axId val="2136081976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3472,7 +6217,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065231128"/>
+        <c:crossAx val="2136087528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3787,6 +6532,198 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4117,10 +7054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M64"/>
+  <dimension ref="B2:AI94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N5" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="L99" sqref="L99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5491,6 +8428,757 @@
       <c r="L64" s="11"/>
       <c r="M64" s="12"/>
     </row>
+    <row r="81" spans="3:35">
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="O81" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="3:35">
+      <c r="C83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z83" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="3:35">
+      <c r="D84" s="3">
+        <v>5</v>
+      </c>
+      <c r="E84" s="3">
+        <v>10</v>
+      </c>
+      <c r="F84" s="3">
+        <v>15</v>
+      </c>
+      <c r="G84" s="3">
+        <v>25</v>
+      </c>
+      <c r="H84" s="3">
+        <v>50</v>
+      </c>
+      <c r="I84" s="3">
+        <v>70</v>
+      </c>
+      <c r="J84" s="3">
+        <v>100</v>
+      </c>
+      <c r="K84" s="3">
+        <v>300</v>
+      </c>
+      <c r="L84" s="18">
+        <v>500</v>
+      </c>
+      <c r="P84" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>10</v>
+      </c>
+      <c r="R84" s="3">
+        <v>15</v>
+      </c>
+      <c r="S84" s="3">
+        <v>25</v>
+      </c>
+      <c r="T84" s="3">
+        <v>50</v>
+      </c>
+      <c r="U84" s="3">
+        <v>70</v>
+      </c>
+      <c r="V84" s="3">
+        <v>100</v>
+      </c>
+      <c r="W84" s="3">
+        <v>300</v>
+      </c>
+      <c r="X84" s="18">
+        <v>500</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>15</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>25</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>50</v>
+      </c>
+      <c r="AF84" s="3">
+        <v>70</v>
+      </c>
+      <c r="AG84" s="3">
+        <v>100</v>
+      </c>
+      <c r="AH84" s="3">
+        <v>300</v>
+      </c>
+      <c r="AI84" s="18">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="85" spans="3:35">
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="E85" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F85" s="8">
+        <v>0</v>
+      </c>
+      <c r="G85" s="16">
+        <v>0</v>
+      </c>
+      <c r="H85" s="16">
+        <v>0</v>
+      </c>
+      <c r="I85" s="16">
+        <v>0</v>
+      </c>
+      <c r="J85" s="16">
+        <v>0</v>
+      </c>
+      <c r="K85" s="16">
+        <v>0</v>
+      </c>
+      <c r="L85" s="9">
+        <v>0</v>
+      </c>
+      <c r="O85" t="s">
+        <v>12</v>
+      </c>
+      <c r="P85" s="14">
+        <v>20.96</v>
+      </c>
+      <c r="Q85" s="14">
+        <v>27.83</v>
+      </c>
+      <c r="R85" s="8">
+        <v>0</v>
+      </c>
+      <c r="S85" s="16">
+        <v>0</v>
+      </c>
+      <c r="T85" s="16">
+        <v>0</v>
+      </c>
+      <c r="U85" s="16">
+        <v>0</v>
+      </c>
+      <c r="V85" s="16">
+        <v>0</v>
+      </c>
+      <c r="W85" s="16">
+        <v>0</v>
+      </c>
+      <c r="X85" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA85" s="14">
+        <v>90</v>
+      </c>
+      <c r="AB85" s="14">
+        <v>28.57</v>
+      </c>
+      <c r="AC85" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI85" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:35">
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="8">
+        <v>5.77</v>
+      </c>
+      <c r="E86" s="8">
+        <v>5.28</v>
+      </c>
+      <c r="F86" s="8">
+        <v>6.01</v>
+      </c>
+      <c r="G86" s="8">
+        <v>6.01</v>
+      </c>
+      <c r="H86" s="16">
+        <v>5.74</v>
+      </c>
+      <c r="I86" s="16">
+        <v>5.57</v>
+      </c>
+      <c r="J86" s="16">
+        <v>5.75</v>
+      </c>
+      <c r="K86" s="16">
+        <v>6.3</v>
+      </c>
+      <c r="L86" s="9">
+        <v>6.64</v>
+      </c>
+      <c r="O86" t="s">
+        <v>5</v>
+      </c>
+      <c r="P86" s="14">
+        <v>0.86</v>
+      </c>
+      <c r="Q86" s="14">
+        <v>1.87</v>
+      </c>
+      <c r="R86" s="8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="S86" s="16">
+        <v>4.03</v>
+      </c>
+      <c r="T86" s="16">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="U86" s="16">
+        <v>11.3</v>
+      </c>
+      <c r="V86" s="16">
+        <v>14.95</v>
+      </c>
+      <c r="W86" s="16">
+        <v>18.36</v>
+      </c>
+      <c r="X86" s="9">
+        <v>20.84</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA86" s="14">
+        <v>100</v>
+      </c>
+      <c r="AB86" s="14">
+        <v>100</v>
+      </c>
+      <c r="AC86" s="14">
+        <v>100</v>
+      </c>
+      <c r="AD86" s="14">
+        <v>100</v>
+      </c>
+      <c r="AE86" s="14">
+        <v>100</v>
+      </c>
+      <c r="AF86" s="14">
+        <v>100</v>
+      </c>
+      <c r="AG86" s="14">
+        <v>100</v>
+      </c>
+      <c r="AH86" s="14">
+        <v>67.45</v>
+      </c>
+      <c r="AI86" s="9">
+        <v>49.49</v>
+      </c>
+    </row>
+    <row r="87" spans="3:35">
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="8">
+        <v>35.39</v>
+      </c>
+      <c r="E87" s="8">
+        <v>56.15</v>
+      </c>
+      <c r="F87" s="8">
+        <v>59.9</v>
+      </c>
+      <c r="G87" s="16">
+        <v>60.83</v>
+      </c>
+      <c r="H87" s="16">
+        <v>67.849999999999994</v>
+      </c>
+      <c r="I87" s="16">
+        <v>67.88</v>
+      </c>
+      <c r="J87" s="16">
+        <v>72.31</v>
+      </c>
+      <c r="K87" s="9">
+        <v>70.209999999999994</v>
+      </c>
+      <c r="L87" s="16">
+        <v>68.58</v>
+      </c>
+      <c r="O87" t="s">
+        <v>13</v>
+      </c>
+      <c r="P87" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q87" s="14">
+        <v>0.18</v>
+      </c>
+      <c r="R87" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="S87" s="16">
+        <v>0.41</v>
+      </c>
+      <c r="T87" s="16">
+        <v>0.73</v>
+      </c>
+      <c r="U87" s="16">
+        <v>1.02</v>
+      </c>
+      <c r="V87" s="16">
+        <v>1.36</v>
+      </c>
+      <c r="W87" s="9">
+        <v>3.29</v>
+      </c>
+      <c r="X87" s="16">
+        <v>4.45</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA87" s="14">
+        <v>100</v>
+      </c>
+      <c r="AB87" s="14">
+        <v>100</v>
+      </c>
+      <c r="AC87" s="14">
+        <v>100</v>
+      </c>
+      <c r="AD87" s="14">
+        <v>100</v>
+      </c>
+      <c r="AE87" s="14">
+        <v>100</v>
+      </c>
+      <c r="AF87" s="14">
+        <v>100</v>
+      </c>
+      <c r="AG87" s="14">
+        <v>100</v>
+      </c>
+      <c r="AH87" s="9">
+        <v>98.14</v>
+      </c>
+      <c r="AI87" s="17">
+        <v>93.38</v>
+      </c>
+    </row>
+    <row r="90" spans="3:35">
+      <c r="C90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z90" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="3:35">
+      <c r="D91" s="14">
+        <v>5</v>
+      </c>
+      <c r="E91" s="14">
+        <v>10</v>
+      </c>
+      <c r="F91" s="14">
+        <v>15</v>
+      </c>
+      <c r="G91" s="14">
+        <v>25</v>
+      </c>
+      <c r="H91" s="14">
+        <v>50</v>
+      </c>
+      <c r="I91" s="14">
+        <v>70</v>
+      </c>
+      <c r="J91" s="14">
+        <v>100</v>
+      </c>
+      <c r="K91" s="14">
+        <v>300</v>
+      </c>
+      <c r="L91" s="9">
+        <v>500</v>
+      </c>
+      <c r="P91" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="14">
+        <v>10</v>
+      </c>
+      <c r="R91" s="14">
+        <v>15</v>
+      </c>
+      <c r="S91" s="14">
+        <v>25</v>
+      </c>
+      <c r="T91" s="14">
+        <v>50</v>
+      </c>
+      <c r="U91" s="14">
+        <v>70</v>
+      </c>
+      <c r="V91" s="14">
+        <v>100</v>
+      </c>
+      <c r="W91" s="14">
+        <v>300</v>
+      </c>
+      <c r="X91" s="9">
+        <v>500</v>
+      </c>
+      <c r="AA91" s="14">
+        <v>5</v>
+      </c>
+      <c r="AB91" s="14">
+        <v>10</v>
+      </c>
+      <c r="AC91" s="14">
+        <v>15</v>
+      </c>
+      <c r="AD91" s="14">
+        <v>25</v>
+      </c>
+      <c r="AE91" s="14">
+        <v>50</v>
+      </c>
+      <c r="AF91" s="14">
+        <v>70</v>
+      </c>
+      <c r="AG91" s="14">
+        <v>100</v>
+      </c>
+      <c r="AH91" s="14">
+        <v>300</v>
+      </c>
+      <c r="AI91" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="3:35">
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92">
+        <v>0.13</v>
+      </c>
+      <c r="E92">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="O92" t="s">
+        <v>12</v>
+      </c>
+      <c r="P92">
+        <v>24.1</v>
+      </c>
+      <c r="Q92">
+        <v>25.01</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA92">
+        <v>88.89</v>
+      </c>
+      <c r="AB92" s="14">
+        <v>28.57</v>
+      </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <v>0</v>
+      </c>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:35">
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="8">
+        <v>5.47</v>
+      </c>
+      <c r="E93" s="8">
+        <v>5.98</v>
+      </c>
+      <c r="F93" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="G93" s="16">
+        <v>5.9</v>
+      </c>
+      <c r="H93" s="16">
+        <v>5.85</v>
+      </c>
+      <c r="I93" s="16">
+        <v>5.91</v>
+      </c>
+      <c r="J93" s="16">
+        <v>5.78</v>
+      </c>
+      <c r="K93" s="16">
+        <v>5.62</v>
+      </c>
+      <c r="L93" s="9">
+        <v>6.43</v>
+      </c>
+      <c r="O93" t="s">
+        <v>5</v>
+      </c>
+      <c r="P93" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="Q93" s="8">
+        <v>1.65</v>
+      </c>
+      <c r="R93" s="8">
+        <v>2.38</v>
+      </c>
+      <c r="S93" s="16">
+        <v>4.09</v>
+      </c>
+      <c r="T93" s="16">
+        <v>7.93</v>
+      </c>
+      <c r="U93" s="16">
+        <v>10.71</v>
+      </c>
+      <c r="V93" s="16">
+        <v>14.84</v>
+      </c>
+      <c r="W93" s="16">
+        <v>20.59</v>
+      </c>
+      <c r="X93" s="9">
+        <v>22.34</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA93" s="14">
+        <v>100</v>
+      </c>
+      <c r="AB93" s="14">
+        <v>100</v>
+      </c>
+      <c r="AC93" s="14">
+        <v>100</v>
+      </c>
+      <c r="AD93" s="14">
+        <v>100</v>
+      </c>
+      <c r="AE93" s="14">
+        <v>100</v>
+      </c>
+      <c r="AF93" s="14">
+        <v>100</v>
+      </c>
+      <c r="AG93" s="14">
+        <v>100</v>
+      </c>
+      <c r="AH93" s="14">
+        <v>46.97</v>
+      </c>
+      <c r="AI93" s="9">
+        <v>34.549999999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="3:35">
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="8">
+        <v>28.9</v>
+      </c>
+      <c r="E94" s="8">
+        <v>37.76</v>
+      </c>
+      <c r="F94" s="8">
+        <v>36.74</v>
+      </c>
+      <c r="G94" s="16">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="H94" s="16">
+        <v>36</v>
+      </c>
+      <c r="I94" s="16">
+        <v>40.36</v>
+      </c>
+      <c r="J94" s="16">
+        <v>38.72</v>
+      </c>
+      <c r="K94" s="16">
+        <v>35.21</v>
+      </c>
+      <c r="L94" s="9">
+        <v>38.659999999999997</v>
+      </c>
+      <c r="O94" t="s">
+        <v>13</v>
+      </c>
+      <c r="P94" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="Q94" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="R94" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="S94" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="T94" s="16">
+        <v>1.37</v>
+      </c>
+      <c r="U94" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="V94" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="W94" s="16">
+        <v>3.6</v>
+      </c>
+      <c r="X94" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA94" s="14">
+        <v>100</v>
+      </c>
+      <c r="AB94" s="14">
+        <v>100</v>
+      </c>
+      <c r="AC94" s="14">
+        <v>100</v>
+      </c>
+      <c r="AD94" s="14">
+        <v>100</v>
+      </c>
+      <c r="AE94" s="14">
+        <v>100</v>
+      </c>
+      <c r="AF94" s="14">
+        <v>100</v>
+      </c>
+      <c r="AG94" s="14">
+        <v>100</v>
+      </c>
+      <c r="AH94" s="14">
+        <v>96.22</v>
+      </c>
+      <c r="AI94" s="9">
+        <v>91.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
